--- a/docs/backlog_nexohub.xlsx
+++ b/docs/backlog_nexohub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efrain/Documents/04. Desarrollo/nexohub-suite/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE85A1-68AA-6C4F-A3EB-99247E4AB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48B0DB-1235-1648-B727-9FAB4BACECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="555">
   <si>
     <t>Backlog NexoHub Suite (MVP 6 semanas, SIN offline) — cómo usar este Excel</t>
   </si>
@@ -2334,7 +2334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,6 +2370,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -2377,7 +2384,7 @@
       <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2397,6 +2404,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2435,11 +2447,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2461,9 +2474,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2725,8 +2742,8 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3282,8 +3299,8 @@
       <c r="N12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>37</v>
+      <c r="O12" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="128" x14ac:dyDescent="0.2">
@@ -3329,8 +3346,8 @@
       <c r="N13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>37</v>
+      <c r="O13" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="64" x14ac:dyDescent="0.2">
@@ -3376,7 +3393,7 @@
       <c r="N14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3423,8 +3440,8 @@
       <c r="N15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>37</v>
+      <c r="O15" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="64" x14ac:dyDescent="0.2">
@@ -3470,11 +3487,11 @@
       <c r="N16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>159</v>
       </c>
@@ -3513,7 +3530,9 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="7" t="s">
+        <v>551</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/backlog_nexohub.xlsx
+++ b/docs/backlog_nexohub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efrain/Documents/04. Desarrollo/nexohub-suite/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48B0DB-1235-1648-B727-9FAB4BACECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F0101-65A7-B346-BB1A-FA5215A60A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="620" windowWidth="27640" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <sheet name="Semana 5" sheetId="6" r:id="rId6"/>
     <sheet name="Semana 6" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2674,7 +2687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2741,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -3546,6 +3561,611 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="60" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="4">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="4">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
@@ -3570,7 +4190,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3636,609 +4256,6 @@
     </row>
     <row r="3" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="4">
-        <v>5</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M6" s="4">
-        <v>6</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="4">
-        <v>4</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="4">
-        <v>8</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="4">
-        <v>6</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="4">
-        <v>2</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="4">
-        <v>3</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="60" customWidth="1"/>
-    <col min="11" max="11" width="34" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4611,7 +4628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5071,7 +5090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5623,7 +5644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
